--- a/output/2_0_0/nomogram_config_2_0_0.xlsx
+++ b/output/2_0_0/nomogram_config_2_0_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>feature</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>CountOutputMax</t>
+  </si>
+  <si>
+    <t>CountPathMin-divided-by-1,000</t>
   </si>
   <si>
     <t>CountPathMean-divided-by-1,000</t>
@@ -453,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-3.2617</v>
+        <v>-2.4252</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0031</v>
+        <v>-0.0004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.0823</v>
+        <v>-0.0727</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -534,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0752</v>
+        <v>0.1093</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -551,13 +554,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.2278</v>
+        <v>-0.2733</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -568,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1664</v>
+        <v>0.1359</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -585,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07829999999999999</v>
+        <v>-0.3768</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -602,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0212</v>
+        <v>0.0234</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -619,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0506</v>
+        <v>0.0723</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -636,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0007</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -653,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0058</v>
+        <v>-0.0097</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -670,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.006</v>
+        <v>-0.0016</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -687,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.02</v>
+        <v>0.0212</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -704,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.012</v>
+        <v>0.0178</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -721,13 +724,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1557</v>
+        <v>0.1632</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -738,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0046</v>
+        <v>0.0011</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -755,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.6594</v>
+        <v>-0.8024</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -772,13 +775,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.2154</v>
+        <v>-0.175</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -789,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.08690000000000001</v>
+        <v>0.0515</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -806,7 +809,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0019</v>
+        <v>0.0058</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -823,7 +826,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0032</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -840,7 +843,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0592</v>
+        <v>0.0121</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -857,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0086</v>
+        <v>0.0164</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -874,13 +877,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0008</v>
+        <v>0.5262</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2772</v>
+        <v>1363</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -891,13 +894,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0074</v>
+        <v>0.0018</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>47776</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -908,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2481</v>
+        <v>-0.0033</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -925,13 +928,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3536</v>
+        <v>-0.1257</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -942,15 +945,32 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.176</v>
+        <v>0.6056</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.0833</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/2_0_0/nomogram_config_2_0_0.xlsx
+++ b/output/2_0_0/nomogram_config_2_0_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>feature</t>
   </si>
@@ -46,9 +46,6 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>AvgCountLineBlank</t>
-  </si>
-  <si>
     <t>AvgCountLineComment</t>
   </si>
   <si>
@@ -70,15 +67,6 @@
     <t>CountDeclClass</t>
   </si>
   <si>
-    <t>CountDeclClassMethod</t>
-  </si>
-  <si>
-    <t>CountDeclMethodDefault</t>
-  </si>
-  <si>
-    <t>CountDeclMethodPrivate</t>
-  </si>
-  <si>
     <t>MaxCyclomatic</t>
   </si>
   <si>
@@ -94,34 +82,25 @@
     <t>CountInputMin</t>
   </si>
   <si>
-    <t>CountInputMean</t>
-  </si>
-  <si>
     <t>CountInputMax</t>
   </si>
   <si>
     <t>CountOutputMin</t>
   </si>
   <si>
-    <t>CountOutputMean</t>
-  </si>
-  <si>
     <t>CountOutputMax</t>
   </si>
   <si>
-    <t>CountPathMin-divided-by-1,000</t>
-  </si>
-  <si>
-    <t>CountPathMean-divided-by-1,000</t>
+    <t>CountPathMin-divided-by-10,000</t>
+  </si>
+  <si>
+    <t>CountPathMean-divided-by-100,000</t>
   </si>
   <si>
     <t>CountPathMax-divided-by-1,000,000</t>
   </si>
   <si>
     <t>MaxNestingMin</t>
-  </si>
-  <si>
-    <t>MaxNestingMean</t>
   </si>
   <si>
     <t>MaxNestingMax</t>
@@ -456,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-2.4252</v>
+        <v>-0.2235</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0004</v>
+        <v>-0.0145</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -520,13 +499,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.0727</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -537,13 +516,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1093</v>
+        <v>-0.1142</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -554,13 +533,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.2733</v>
+        <v>-0.1383</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -571,13 +550,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1359</v>
+        <v>-0.2581</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -588,13 +567,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.3768</v>
+        <v>0.014</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.3</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -605,13 +584,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0234</v>
+        <v>-0.007</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -622,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0723</v>
+        <v>0.0001</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>2105</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -639,13 +618,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0005999999999999999</v>
+        <v>0.039</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2105</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -656,13 +635,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0097</v>
+        <v>-0.2469</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>788</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -673,13 +652,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0016</v>
+        <v>-0.0095</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -690,13 +669,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0212</v>
+        <v>-0.3129</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>526</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -707,13 +686,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0178</v>
+        <v>-0.0535</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -724,13 +703,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1632</v>
+        <v>-0.0002</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>371</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -741,13 +720,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0011</v>
+        <v>-0.0762</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -758,13 +737,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.8024</v>
+        <v>0.0172</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.699999999999999</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -775,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.175</v>
+        <v>0.1198</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -792,13 +771,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0515</v>
+        <v>0.0313</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>55.5</v>
+        <v>478</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -809,13 +788,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0058</v>
+        <v>0.0066</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>371</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -826,13 +805,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.009299999999999999</v>
+        <v>0.0183</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -843,134 +822,15 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0121</v>
+        <v>-0.0571</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.0164</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>173</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.5262</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1363</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.0018</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>47776</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>-0.0033</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>-0.1257</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.6056</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.0833</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>

--- a/output/2_0_0/nomogram_config_2_0_0.xlsx
+++ b/output/2_0_0/nomogram_config_2_0_0.xlsx
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2235</v>
+        <v>-1.1158</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0145</v>
+        <v>-0.0233</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.09909999999999999</v>
+        <v>0.1614</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1142</v>
+        <v>-0.0606</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.1383</v>
+        <v>0.066</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.2581</v>
+        <v>-0.8298</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.014</v>
+        <v>0.0209</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.007</v>
+        <v>0.0402</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0001</v>
+        <v>0.0013</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.039</v>
+        <v>0.0086</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.2469</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0095</v>
+        <v>0.0008</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.3129</v>
+        <v>-1.2648</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0535</v>
+        <v>-0.073</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.0002</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.0762</v>
+        <v>-0.0029</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0172</v>
+        <v>0.0186</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1198</v>
+        <v>0.542</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0313</v>
+        <v>0.031</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0066</v>
+        <v>-0.0005</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0183</v>
+        <v>0.1513</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0571</v>
+        <v>0.1722</v>
       </c>
       <c r="C24">
         <v>0</v>
